--- a/Corpus_Final_variabile_scoruri.xlsx
+++ b/Corpus_Final_variabile_scoruri.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bbfd6b61f3f0f1d5/Documents/GitHub/POP-LITE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C35BEA74-F181-9A47-B50C-62BF8EFB857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E9A0FAC-57AF-43E5-BFA3-208B7CABBD16}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{C35BEA74-F181-9A47-B50C-62BF8EFB857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{573E206D-392A-415E-AE92-388C2B68BE6A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{93AB1A60-CD84-E842-8D71-208CBB13EC84}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{93AB1A60-CD84-E842-8D71-208CBB13EC84}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="corpus-poplite" sheetId="1" r:id="rId1"/>
+    <sheet name="extensie corpus" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'corpus-poplite'!$K$1:$K$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'extensie corpus'!$K$1:$K$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="354">
   <si>
     <t>Cod</t>
   </si>
@@ -1063,9 +1065,6 @@
   </si>
   <si>
     <t>social</t>
-  </si>
-  <si>
-    <t>razboi</t>
   </si>
   <si>
     <t>mistere</t>
@@ -1708,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FDDDCA-6E97-E244-A96B-41E0A86BB543}">
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <selection activeCell="L131" sqref="L131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1827,10 +1826,10 @@
         <v>12</v>
       </c>
       <c r="J3" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="K3" s="47" t="s">
         <v>347</v>
-      </c>
-      <c r="K3" s="53" t="s">
-        <v>342</v>
       </c>
       <c r="L3" s="49">
         <v>6</v>
@@ -1865,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K4" s="47" t="s">
         <v>333</v>
@@ -1941,10 +1940,10 @@
         <v>8</v>
       </c>
       <c r="J6" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="K6" s="47" t="s">
         <v>347</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>348</v>
       </c>
       <c r="L6" s="49">
         <v>6</v>
@@ -1979,10 +1978,10 @@
         <v>12</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L7" s="49">
         <v>6</v>
@@ -2017,10 +2016,10 @@
         <v>12</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L8" s="49">
         <v>6</v>
@@ -2093,7 +2092,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K10" s="47" t="s">
         <v>332</v>
@@ -2294,7 +2293,7 @@
     </row>
     <row r="16" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>286</v>
@@ -2321,10 +2320,10 @@
         <v>12</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K16" s="48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L16" s="52">
         <v>6</v>
@@ -2359,7 +2358,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K17" s="48" t="s">
         <v>330</v>
@@ -2476,7 +2475,7 @@
         <v>329</v>
       </c>
       <c r="K20" s="47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L20" s="49">
         <v>6</v>
@@ -2701,7 +2700,7 @@
         <v>12</v>
       </c>
       <c r="J26" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K26" s="47" t="s">
         <v>332</v>
@@ -2739,7 +2738,7 @@
         <v>12</v>
       </c>
       <c r="J27" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K27" s="47" t="s">
         <v>332</v>
@@ -2809,7 +2808,7 @@
         <v>327</v>
       </c>
       <c r="H29" s="47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I29" s="47" t="s">
         <v>12</v>
@@ -2853,7 +2852,7 @@
         <v>12</v>
       </c>
       <c r="J30" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K30" s="47" t="s">
         <v>339</v>
@@ -2891,7 +2890,7 @@
         <v>12</v>
       </c>
       <c r="J31" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K31" s="47" t="s">
         <v>339</v>
@@ -2961,7 +2960,7 @@
         <v>327</v>
       </c>
       <c r="H33" s="47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I33" s="47" t="s">
         <v>12</v>
@@ -2999,7 +2998,7 @@
         <v>327</v>
       </c>
       <c r="H34" s="47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I34" s="47" t="s">
         <v>12</v>
@@ -3113,7 +3112,7 @@
         <v>327</v>
       </c>
       <c r="H37" s="47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I37" s="47" t="s">
         <v>12</v>
@@ -3122,7 +3121,7 @@
         <v>331</v>
       </c>
       <c r="K37" s="47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L37" s="49">
         <v>6</v>
@@ -3151,7 +3150,7 @@
         <v>327</v>
       </c>
       <c r="H38" s="47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I38" s="47" t="s">
         <v>12</v>
@@ -3160,7 +3159,7 @@
         <v>329</v>
       </c>
       <c r="K38" s="47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L38" s="49">
         <v>6</v>
@@ -3227,7 +3226,7 @@
         <v>327</v>
       </c>
       <c r="H40" s="47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I40" s="47" t="s">
         <v>12</v>
@@ -3347,7 +3346,7 @@
         <v>12</v>
       </c>
       <c r="J43" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K43" s="50" t="s">
         <v>330</v>
@@ -3385,7 +3384,7 @@
         <v>8</v>
       </c>
       <c r="J44" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K44" s="47" t="s">
         <v>330</v>
@@ -3478,7 +3477,7 @@
         <v>119</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D47" s="47" t="s">
         <v>8</v>
@@ -3531,13 +3530,13 @@
         <v>327</v>
       </c>
       <c r="H48" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="I48" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="47" t="s">
         <v>346</v>
-      </c>
-      <c r="I48" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="47" t="s">
-        <v>347</v>
       </c>
       <c r="K48" s="50" t="s">
         <v>330</v>
@@ -3569,7 +3568,7 @@
         <v>327</v>
       </c>
       <c r="H49" s="47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I49" s="47" t="s">
         <v>12</v>
@@ -3630,7 +3629,7 @@
         <v>127</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D51" s="47" t="s">
         <v>8</v>
@@ -3651,7 +3650,7 @@
         <v>328</v>
       </c>
       <c r="J51" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K51" s="50" t="s">
         <v>330</v>
@@ -3689,7 +3688,7 @@
         <v>12</v>
       </c>
       <c r="J52" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K52" s="50" t="s">
         <v>330</v>
@@ -3727,7 +3726,7 @@
         <v>12</v>
       </c>
       <c r="J53" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K53" s="50" t="s">
         <v>332</v>
@@ -4031,7 +4030,7 @@
         <v>8</v>
       </c>
       <c r="J61" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K61" s="50" t="s">
         <v>338</v>
@@ -4145,7 +4144,7 @@
         <v>12</v>
       </c>
       <c r="J64" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K64" s="50" t="s">
         <v>339</v>
@@ -4238,7 +4237,7 @@
         <v>172</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D67" s="47" t="s">
         <v>12</v>
@@ -4259,7 +4258,7 @@
         <v>8</v>
       </c>
       <c r="J67" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K67" s="47" t="s">
         <v>332</v>
@@ -4373,7 +4372,7 @@
         <v>12</v>
       </c>
       <c r="J70" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K70" s="47" t="s">
         <v>339</v>
@@ -4411,7 +4410,7 @@
         <v>12</v>
       </c>
       <c r="J71" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K71" s="47" t="s">
         <v>339</v>
@@ -4490,7 +4489,7 @@
         <v>331</v>
       </c>
       <c r="K73" s="50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L73" s="51">
         <v>6</v>
@@ -4829,7 +4828,7 @@
         <v>12</v>
       </c>
       <c r="J82" s="48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K82" s="48" t="s">
         <v>330</v>
@@ -4867,10 +4866,10 @@
         <v>12</v>
       </c>
       <c r="J83" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K83" s="50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L83" s="51">
         <v>6</v>
@@ -5051,7 +5050,7 @@
         <v>327</v>
       </c>
       <c r="H88" s="47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I88" s="48" t="s">
         <v>8</v>
@@ -5226,7 +5225,7 @@
         <v>14</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D93" s="48" t="s">
         <v>12</v>
@@ -5279,7 +5278,7 @@
         <v>327</v>
       </c>
       <c r="H94" s="47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I94" s="53" t="s">
         <v>8</v>
@@ -5507,7 +5506,7 @@
         <v>327</v>
       </c>
       <c r="H100" s="48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I100" s="47" t="s">
         <v>8</v>
@@ -5560,894 +5559,961 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="B102" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C102" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="D102" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F102" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="G102" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="H102" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="I102" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="J102" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="K102" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="L102" s="51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="B103" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C103" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D103" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F103" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="G103" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H103" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="I103" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J103" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="K103" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="L103" s="49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="B104" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="C104" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="D104" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F104" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="G104" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H104" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="I104" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J104" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="K104" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="L104" s="49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="B105" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="C105" s="41" t="s">
-        <v>354</v>
-      </c>
-      <c r="D105" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F105" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="G105" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H105" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="I105" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="J105" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="K105" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="L105" s="49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="B106" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="C106" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="D106" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F106" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="G106" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H106" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="I106" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J106" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="K106" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="L106" s="49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="B107" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D107" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F107" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="G107" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H107" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="I107" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J107" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="K107" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="L107" s="49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="B108" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D108" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F108" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="G108" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H108" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="I108" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J108" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="K108" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="L108" s="49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="B109" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D109" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F109" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="G109" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H109" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="I109" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J109" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="K109" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="L109" s="49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="B110" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C110" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D110" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F110" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="G110" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H110" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="I110" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="J110" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="K110" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="L110" s="49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="B111" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C111" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D111" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F111" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="G111" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H111" s="47" t="s">
-        <v>346</v>
-      </c>
-      <c r="I111" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J111" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="K111" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="L111" s="49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="36" t="s">
-        <v>290</v>
-      </c>
-      <c r="B112" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="C112" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="D112" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F112" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="G112" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H112" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="I112" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J112" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="K112" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="L112" s="51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="B113" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C113" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="D113" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F113" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="G113" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H113" s="47" t="s">
-        <v>346</v>
-      </c>
-      <c r="I113" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="J113" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="K113" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="L113" s="49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B114" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="C114" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="D114" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="F114" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="G114" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H114" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="I114" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="J114" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="K114" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="L114" s="49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="B115" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="C115" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="D115" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="F115" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="G115" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="H115" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="I115" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J115" s="48" t="s">
-        <v>340</v>
-      </c>
-      <c r="K115" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="L115" s="52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="B116" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="C116" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="D116" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F116" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="G116" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H116" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="I116" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="J116" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="K116" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="L116" s="49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="B117" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="C117" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="D117" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="F117" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="G117" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="H117" s="53" t="s">
-        <v>346</v>
-      </c>
-      <c r="I117" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J117" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="K117" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="L117" s="49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="B118" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C118" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="D118" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F118" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="G118" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H118" s="47" t="s">
-        <v>346</v>
-      </c>
-      <c r="I118" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J118" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="K118" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="L118" s="49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="B119" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="C119" s="56" t="s">
-        <v>237</v>
-      </c>
-      <c r="D119" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="F119" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="G119" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="H119" s="57" t="s">
-        <v>337</v>
-      </c>
-      <c r="I119" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="J119" s="48" t="s">
-        <v>329</v>
-      </c>
-      <c r="K119" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="L119" s="52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="B120" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="C120" s="61" t="s">
-        <v>311</v>
-      </c>
-      <c r="D120" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="F120" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="G120" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="H120" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="I120" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="J120" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="K120" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="L120" s="52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="B121" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D121" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F121" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="G121" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H121" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="I121" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="J121" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="K121" s="50" t="s">
-        <v>330</v>
-      </c>
-      <c r="L121" s="51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="B122" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C122" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="D122" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F122" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="G122" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H122" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="I122" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J122" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="K122" s="47" t="s">
-        <v>339</v>
-      </c>
-      <c r="L122" s="49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="B123" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C123" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D123" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F123" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="G123" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H123" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="I123" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J123" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="K123" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="L123" s="49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="B124" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C124" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D124" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F124" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="G124" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="H124" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="I124" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J124" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="K124" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="L124" s="49">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="H1:H124" xr:uid="{07FDDDCA-6E97-E244-A96B-41E0A86BB543}"/>
+  <autoFilter ref="K1:K125" xr:uid="{07FDDDCA-6E97-E244-A96B-41E0A86BB543}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L124">
     <sortCondition ref="A1:A124"/>
   </sortState>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I124" xr:uid="{72949333-18AA-5044-82ED-940513FE3FC4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I101" xr:uid="{72949333-18AA-5044-82ED-940513FE3FC4}">
       <formula1>"da, nu, invalid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H124" xr:uid="{4E678FD7-4DFE-FE45-A96B-B94C27CD7CAA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H101" xr:uid="{4E678FD7-4DFE-FE45-A96B-B94C27CD7CAA}">
       <formula1>"mare, mic, invalid"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108E6DE1-79D1-4E6D-84B0-17755AA578D6}">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="26.08203125" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="L2" s="51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="L3" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="L4" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="L5" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="L6" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L7" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L8" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L9" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L10" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L11" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="L12" s="51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="K13" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L13" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L14" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="L15" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L16" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="I17" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K17" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="L17" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L18" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="L19" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="L20" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H21" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="L21" s="51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="I22" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="K22" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="L22" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H23" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="K23" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="L23" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="H24" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="I24" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="K24" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="L24" s="49">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="K1:K24" xr:uid="{108E6DE1-79D1-4E6D-84B0-17755AA578D6}"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H24" xr:uid="{4E678FD7-4DFE-FE45-A96B-B94C27CD7CAA}">
+      <formula1>"mare, mic, invalid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I24" xr:uid="{72949333-18AA-5044-82ED-940513FE3FC4}">
+      <formula1>"da, nu, invalid"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>